--- a/teaching/traditional_assets/database/data/indonesia/indonesia_software_entertainment.xlsx
+++ b/teaching/traditional_assets/database/data/indonesia/indonesia_software_entertainment.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ3"/>
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="G2">
-        <v>0.07045454545454545</v>
+        <v>0.1286690792119019</v>
       </c>
       <c r="H2">
-        <v>0.07045454545454545</v>
+        <v>0.1286690792119019</v>
       </c>
       <c r="I2">
-        <v>-0.09909090909090908</v>
+        <v>-0.2460796139927623</v>
       </c>
       <c r="J2">
-        <v>-0.09909090909090908</v>
+        <v>-0.2460796139927623</v>
       </c>
       <c r="K2">
-        <v>-0.272</v>
+        <v>-0.872</v>
       </c>
       <c r="L2">
-        <v>-0.1236363636363636</v>
+        <v>-0.3506232408524326</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -630,73 +630,73 @@
         <v>0</v>
       </c>
       <c r="U2">
+        <v>0.524</v>
+      </c>
+      <c r="V2">
+        <v>0.01091894144613461</v>
+      </c>
+      <c r="W2">
+        <v>-0.4658155630377853</v>
+      </c>
+      <c r="X2">
+        <v>0.08414716634262813</v>
+      </c>
+      <c r="Y2">
+        <v>-0.5499627293804134</v>
+      </c>
+      <c r="Z2">
+        <v>0.8741652021089631</v>
+      </c>
+      <c r="AA2">
+        <v>-0.5034607015686743</v>
+      </c>
+      <c r="AB2">
+        <v>0.08358019956281339</v>
+      </c>
+      <c r="AC2">
+        <v>-0.5870409011314877</v>
+      </c>
+      <c r="AD2">
+        <v>1</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>0.476</v>
+      </c>
+      <c r="AH2">
+        <v>0.02041232904674424</v>
+      </c>
+      <c r="AI2">
+        <v>0.2653223666755107</v>
+      </c>
+      <c r="AJ2">
+        <v>0.009821318037387035</v>
+      </c>
+      <c r="AK2">
+        <v>0.1466872110939907</v>
+      </c>
+      <c r="AL2">
         <v>0.023</v>
       </c>
-      <c r="V2">
-        <v>0.0005943152454780361</v>
-      </c>
-      <c r="W2">
-        <v>-0.1083665338645419</v>
-      </c>
-      <c r="X2">
-        <v>0.1024604129577256</v>
-      </c>
-      <c r="Y2">
-        <v>-0.2108269468222674</v>
-      </c>
-      <c r="Z2">
-        <v>0.9369676320272574</v>
-      </c>
-      <c r="AA2">
-        <v>-0.09284497444633731</v>
-      </c>
-      <c r="AB2">
-        <v>0.1024604129577256</v>
-      </c>
-      <c r="AC2">
-        <v>-0.1953053874040629</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>-0.023</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>-0.0005946686661323267</v>
-      </c>
-      <c r="AK2">
-        <v>-0.009555463232239303</v>
-      </c>
-      <c r="AL2">
-        <v>0.001</v>
-      </c>
       <c r="AM2">
-        <v>-0.005</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>-3.225806451612903</v>
       </c>
       <c r="AO2">
-        <v>-218</v>
+        <v>-26.60869565217391</v>
       </c>
       <c r="AP2">
-        <v>-1.769230769230769</v>
+        <v>-1.535483870967742</v>
       </c>
       <c r="AQ2">
-        <v>43.6</v>
+        <v>-87.42857142857143</v>
       </c>
     </row>
     <row r="3">
@@ -716,22 +716,22 @@
         </is>
       </c>
       <c r="G3">
-        <v>0.07045454545454545</v>
+        <v>0.2568548387096774</v>
       </c>
       <c r="H3">
-        <v>0.07045454545454545</v>
+        <v>0.2568548387096774</v>
       </c>
       <c r="I3">
-        <v>-0.09909090909090908</v>
+        <v>-0.0842741935483871</v>
       </c>
       <c r="J3">
-        <v>-0.09909090909090908</v>
+        <v>-0.0842741935483871</v>
       </c>
       <c r="K3">
-        <v>-0.272</v>
+        <v>-0.353</v>
       </c>
       <c r="L3">
-        <v>-0.1236363636363636</v>
+        <v>-0.1423387096774194</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -755,73 +755,198 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.023</v>
+        <v>0.446</v>
       </c>
       <c r="V3">
-        <v>0.0005943152454780361</v>
+        <v>0.009529914529914531</v>
       </c>
       <c r="W3">
-        <v>-0.1083665338645419</v>
+        <v>-0.1452674897119342</v>
       </c>
       <c r="X3">
-        <v>0.1024604129577256</v>
+        <v>0.08482075121707211</v>
       </c>
       <c r="Y3">
-        <v>-0.2108269468222674</v>
+        <v>-0.2300882409290063</v>
       </c>
       <c r="Z3">
-        <v>0.9369676320272574</v>
+        <v>1.030328209389281</v>
       </c>
       <c r="AA3">
-        <v>-0.09284497444633731</v>
+        <v>-0.08683007893643539</v>
       </c>
       <c r="AB3">
-        <v>0.1024604129577256</v>
+        <v>0.08368681765744262</v>
       </c>
       <c r="AC3">
-        <v>-0.1953053874040629</v>
+        <v>-0.170516896593878</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG3">
-        <v>-0.023</v>
+        <v>0.554</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.02092050209205021</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>0.3412969283276451</v>
       </c>
       <c r="AJ3">
-        <v>-0.0005946686661323267</v>
+        <v>0.01169911728681843</v>
       </c>
       <c r="AK3">
-        <v>-0.009555463232239303</v>
+        <v>0.2230273752012883</v>
       </c>
       <c r="AL3">
-        <v>0.001</v>
+        <v>0.021</v>
       </c>
       <c r="AM3">
-        <v>-0.005</v>
+        <v>0.021</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>11.49425287356322</v>
       </c>
       <c r="AO3">
-        <v>-218</v>
+        <v>-9.952380952380951</v>
       </c>
       <c r="AP3">
-        <v>-1.769230769230769</v>
+        <v>6.367816091954024</v>
       </c>
       <c r="AQ3">
-        <v>43.6</v>
+        <v>-9.952380952380951</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>PT Tourindo Guide Indonesia Tbk (IDX:PGJO)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Software (Entertainment)</t>
+        </is>
+      </c>
+      <c r="G4">
+        <v>-45.28571428571428</v>
+      </c>
+      <c r="H4">
+        <v>-45.28571428571428</v>
+      </c>
+      <c r="I4">
+        <v>-57.57142857142858</v>
+      </c>
+      <c r="J4">
+        <v>-57.57142857142858</v>
+      </c>
+      <c r="K4">
+        <v>-0.519</v>
+      </c>
+      <c r="L4">
+        <v>-74.14285714285714</v>
+      </c>
+      <c r="M4">
+        <v>-0</v>
+      </c>
+      <c r="N4">
+        <v>-0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>-0</v>
+      </c>
+      <c r="Q4">
+        <v>-0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0.078</v>
+      </c>
+      <c r="V4">
+        <v>0.06554621848739496</v>
+      </c>
+      <c r="W4">
+        <v>-0.7863636363636364</v>
+      </c>
+      <c r="X4">
+        <v>0.08347358146818415</v>
+      </c>
+      <c r="Y4">
+        <v>-0.8698372178318206</v>
+      </c>
+      <c r="Z4">
+        <v>0.01598173515981735</v>
+      </c>
+      <c r="AA4">
+        <v>-0.9200913242009132</v>
+      </c>
+      <c r="AB4">
+        <v>0.08347358146818415</v>
+      </c>
+      <c r="AC4">
+        <v>-1.003564905669097</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>-0.078</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>-0.07014388489208634</v>
+      </c>
+      <c r="AK4">
+        <v>-0.102496714848883</v>
+      </c>
+      <c r="AL4">
+        <v>0.002</v>
+      </c>
+      <c r="AM4">
+        <v>-0.014</v>
+      </c>
+      <c r="AN4">
+        <v>-0</v>
+      </c>
+      <c r="AO4">
+        <v>-201.5</v>
+      </c>
+      <c r="AP4">
+        <v>0.1964735516372796</v>
+      </c>
+      <c r="AQ4">
+        <v>28.78571428571429</v>
       </c>
     </row>
   </sheetData>
